--- a/background/ftpdir/环境室/2018/01/201801.xlsx
+++ b/background/ftpdir/环境室/2018/01/201801.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="26">
   <si>
     <t>年  月  日</t>
   </si>
@@ -161,6 +161,30 @@
   </si>
   <si>
     <t>王旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路玮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -642,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1198,16 +1222,16 @@
         <v>43131</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
